--- a/AI_Engine/Resultados/70001256/03 dataFrame - resultados agrandamiento.xlsx
+++ b/AI_Engine/Resultados/70001256/03 dataFrame - resultados agrandamiento.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://deere-my.sharepoint.com/personal/gonzalezdiazsergio_johndeere_com/Documents/Desktop/Proyectos/Bot-Creacion-de-Pedidos/AI_Engine/Resultados/70001256/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="11_27D536A78720DC4B8F7B2D11595ED87656CC9085" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{146D0971-3291-4011-80AF-7D870A0BCC40}"/>
+  <xr:revisionPtr revIDLastSave="58" documentId="11_27D536A78720DC4B8F7B2D11595ED87656CC9085" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2E13A9E2-5565-45EA-B2B5-2061A19CC7ED}"/>
   <bookViews>
-    <workbookView xWindow="3630" yWindow="-1380" windowWidth="13950" windowHeight="11550" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="390" yWindow="0" windowWidth="20925" windowHeight="16995" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$J$115</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -32,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="623" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="745" uniqueCount="120">
   <si>
     <t>archivo</t>
   </si>
@@ -356,6 +359,42 @@
   </si>
   <si>
     <t>C:\Users\W8DE5P2\OneDrive-Deere&amp;Co\OneDrive - Deere &amp; Co\Desktop\Proveedores\CLIIENTES JOHN DEERE\ESP\t91.pdf</t>
+  </si>
+  <si>
+    <t>C:\Users\W8DE5P2\OneDrive-Deere&amp;Co\OneDrive - Deere &amp; Co\Desktop\Proveedores\orders_history\ESP INTERNATIONAL_1223728_R116529\10-02-2022_09h-13m.pdf</t>
+  </si>
+  <si>
+    <t>1223728</t>
+  </si>
+  <si>
+    <t>06/08/2022</t>
+  </si>
+  <si>
+    <t>07/06/2022</t>
+  </si>
+  <si>
+    <t>08/03/2022</t>
+  </si>
+  <si>
+    <t>06/01/2022</t>
+  </si>
+  <si>
+    <t>07/13/2022</t>
+  </si>
+  <si>
+    <t>05/18/2022</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>Order number</t>
+  </si>
+  <si>
+    <t>Qty</t>
+  </si>
+  <si>
+    <t>Ref, Qty</t>
   </si>
 </sst>
 </file>
@@ -411,10 +450,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -718,15 +760,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I109"/>
+  <dimension ref="A1:J117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A89" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E107"/>
+    <sheetView tabSelected="1" topLeftCell="A80" workbookViewId="0">
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -752,11 +794,11 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C2" t="s">
@@ -778,11 +820,11 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C3" t="s">
@@ -803,12 +845,15 @@
       <c r="I3">
         <v>92.23</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C4" t="s">
@@ -830,11 +875,11 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C5" t="s">
@@ -855,12 +900,15 @@
       <c r="I5">
         <v>92.835999999999999</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J5" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C6" t="s">
@@ -881,12 +929,15 @@
       <c r="I6">
         <v>92.605999999999995</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J6" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="2" t="s">
         <v>25</v>
       </c>
       <c r="C7" t="s">
@@ -908,11 +959,11 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="2" t="s">
         <v>25</v>
       </c>
       <c r="C8" t="s">
@@ -933,12 +984,15 @@
       <c r="I8">
         <v>92.835999999999999</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J8" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="2" t="s">
         <v>28</v>
       </c>
       <c r="C9" t="s">
@@ -960,11 +1014,11 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="2" t="s">
         <v>28</v>
       </c>
       <c r="C10" t="s">
@@ -985,12 +1039,15 @@
       <c r="I10">
         <v>90.4</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J10" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="2" t="s">
         <v>33</v>
       </c>
       <c r="C11" t="s">
@@ -1012,11 +1069,11 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="2" t="s">
         <v>33</v>
       </c>
       <c r="C12" t="s">
@@ -1037,12 +1094,15 @@
       <c r="I12">
         <v>92.23</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J12" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="2" t="s">
         <v>34</v>
       </c>
       <c r="C13" t="s">
@@ -1064,11 +1124,11 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>12</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="2" t="s">
         <v>34</v>
       </c>
       <c r="C14" t="s">
@@ -1089,12 +1149,15 @@
       <c r="I14">
         <v>92.876999999999995</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J14" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>13</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="2" t="s">
         <v>36</v>
       </c>
       <c r="C15" t="s">
@@ -1116,11 +1179,11 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>14</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="2" t="s">
         <v>36</v>
       </c>
       <c r="C16" t="s">
@@ -1141,12 +1204,15 @@
       <c r="I16">
         <v>92.835999999999999</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J16" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>15</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="2" t="s">
         <v>37</v>
       </c>
       <c r="C17" t="s">
@@ -1168,11 +1234,11 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>16</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="2" t="s">
         <v>37</v>
       </c>
       <c r="C18" t="s">
@@ -1193,12 +1259,15 @@
       <c r="I18">
         <v>92.876999999999995</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J18" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>17</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="2" t="s">
         <v>40</v>
       </c>
       <c r="C19" t="s">
@@ -1220,11 +1289,11 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>18</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="2" t="s">
         <v>40</v>
       </c>
       <c r="C20" t="s">
@@ -1245,12 +1314,15 @@
       <c r="I20">
         <v>92.835999999999999</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J20" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>19</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="2" t="s">
         <v>43</v>
       </c>
       <c r="C21" t="s">
@@ -1272,11 +1344,11 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>20</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="2" t="s">
         <v>43</v>
       </c>
       <c r="C22" t="s">
@@ -1297,12 +1369,15 @@
       <c r="I22">
         <v>92.066000000000003</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J22" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>21</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="2" t="s">
         <v>47</v>
       </c>
       <c r="C23" t="s">
@@ -1324,11 +1399,11 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>22</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="2" t="s">
         <v>47</v>
       </c>
       <c r="C24" t="s">
@@ -1349,12 +1424,15 @@
       <c r="I24">
         <v>65.251000000000005</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J24" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>23</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="2" t="s">
         <v>47</v>
       </c>
       <c r="C25" t="s">
@@ -1375,12 +1453,15 @@
       <c r="I25">
         <v>92.605999999999995</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J25" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>24</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="2" t="s">
         <v>51</v>
       </c>
       <c r="C26" t="s">
@@ -1402,11 +1483,11 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>25</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="2" t="s">
         <v>51</v>
       </c>
       <c r="C27" t="s">
@@ -1427,12 +1508,15 @@
       <c r="I27">
         <v>92.876999999999995</v>
       </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J27" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>26</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="2" t="s">
         <v>52</v>
       </c>
       <c r="C28" t="s">
@@ -1454,11 +1538,11 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>27</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="2" t="s">
         <v>52</v>
       </c>
       <c r="C29" t="s">
@@ -1479,12 +1563,15 @@
       <c r="I29">
         <v>90.4</v>
       </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J29" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>28</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="2" t="s">
         <v>56</v>
       </c>
       <c r="C30" t="s">
@@ -1497,11 +1584,11 @@
         <v>-200</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>29</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="2" t="s">
         <v>56</v>
       </c>
       <c r="C31" t="s">
@@ -1522,12 +1609,15 @@
       <c r="I31">
         <v>-100</v>
       </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J31" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>30</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="2" t="s">
         <v>56</v>
       </c>
       <c r="C32" t="s">
@@ -1548,12 +1638,15 @@
       <c r="I32">
         <v>-100</v>
       </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J32" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>31</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="2" t="s">
         <v>56</v>
       </c>
       <c r="C33" t="s">
@@ -1574,12 +1667,15 @@
       <c r="I33">
         <v>-100</v>
       </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J33" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>32</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" s="2" t="s">
         <v>62</v>
       </c>
       <c r="C34" t="s">
@@ -1592,11 +1688,11 @@
         <v>-200</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>33</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" s="2" t="s">
         <v>62</v>
       </c>
       <c r="C35" t="s">
@@ -1617,12 +1713,15 @@
       <c r="I35">
         <v>-100</v>
       </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J35" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>34</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36" s="2" t="s">
         <v>62</v>
       </c>
       <c r="C36" t="s">
@@ -1643,12 +1742,15 @@
       <c r="I36">
         <v>-100</v>
       </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J36" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>35</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B37" s="2" t="s">
         <v>62</v>
       </c>
       <c r="C37" t="s">
@@ -1669,12 +1771,15 @@
       <c r="I37">
         <v>-100</v>
       </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J37" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>36</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B38" s="2" t="s">
         <v>62</v>
       </c>
       <c r="C38" t="s">
@@ -1695,12 +1800,15 @@
       <c r="I38">
         <v>-100</v>
       </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J38" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>37</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39" s="2" t="s">
         <v>66</v>
       </c>
       <c r="C39" t="s">
@@ -1713,11 +1821,11 @@
         <v>-200</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>38</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40" s="2" t="s">
         <v>66</v>
       </c>
       <c r="C40" t="s">
@@ -1738,12 +1846,15 @@
       <c r="I40">
         <v>-100</v>
       </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J40" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>39</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B41" s="2" t="s">
         <v>66</v>
       </c>
       <c r="C41" t="s">
@@ -1764,12 +1875,15 @@
       <c r="I41">
         <v>-100</v>
       </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J41" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>40</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B42" s="2" t="s">
         <v>66</v>
       </c>
       <c r="C42" t="s">
@@ -1790,12 +1904,15 @@
       <c r="I42">
         <v>-100</v>
       </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J42" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>41</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B43" s="2" t="s">
         <v>68</v>
       </c>
       <c r="C43" t="s">
@@ -1808,11 +1925,11 @@
         <v>-200</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>42</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B44" s="2" t="s">
         <v>68</v>
       </c>
       <c r="C44" t="s">
@@ -1833,12 +1950,15 @@
       <c r="I44">
         <v>-100</v>
       </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J44" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>43</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B45" s="2" t="s">
         <v>68</v>
       </c>
       <c r="C45" t="s">
@@ -1859,12 +1979,15 @@
       <c r="I45">
         <v>-100</v>
       </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J45" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>44</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B46" s="2" t="s">
         <v>68</v>
       </c>
       <c r="C46" t="s">
@@ -1885,12 +2008,15 @@
       <c r="I46">
         <v>-100</v>
       </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J46" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>45</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B47" s="2" t="s">
         <v>68</v>
       </c>
       <c r="C47" t="s">
@@ -1911,12 +2037,15 @@
       <c r="I47">
         <v>-100</v>
       </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J47" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>46</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B48" s="2" t="s">
         <v>68</v>
       </c>
       <c r="C48" t="s">
@@ -1937,12 +2066,15 @@
       <c r="I48">
         <v>-100</v>
       </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J48" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>47</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B49" s="2" t="s">
         <v>68</v>
       </c>
       <c r="C49" t="s">
@@ -1964,11 +2096,11 @@
         <v>-200</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>48</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B50" s="2" t="s">
         <v>74</v>
       </c>
       <c r="C50" t="s">
@@ -1981,11 +2113,11 @@
         <v>-200</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>49</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B51" s="2" t="s">
         <v>74</v>
       </c>
       <c r="C51" t="s">
@@ -2006,12 +2138,15 @@
       <c r="I51">
         <v>-100</v>
       </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J51" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>50</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B52" s="2" t="s">
         <v>74</v>
       </c>
       <c r="C52" t="s">
@@ -2032,12 +2167,15 @@
       <c r="I52">
         <v>-100</v>
       </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J52" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>51</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B53" s="2" t="s">
         <v>74</v>
       </c>
       <c r="C53" t="s">
@@ -2058,12 +2196,15 @@
       <c r="I53">
         <v>-100</v>
       </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J53" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>52</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B54" s="2" t="s">
         <v>74</v>
       </c>
       <c r="C54" t="s">
@@ -2084,12 +2225,15 @@
       <c r="I54">
         <v>-100</v>
       </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J54" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>53</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B55" s="2" t="s">
         <v>74</v>
       </c>
       <c r="C55" t="s">
@@ -2110,12 +2254,15 @@
       <c r="I55">
         <v>-100</v>
       </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J55" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>54</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B56" s="2" t="s">
         <v>74</v>
       </c>
       <c r="C56" t="s">
@@ -2136,12 +2283,15 @@
       <c r="I56">
         <v>-100</v>
       </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J56" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>55</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B57" s="2" t="s">
         <v>74</v>
       </c>
       <c r="C57" t="s">
@@ -2162,12 +2312,15 @@
       <c r="I57">
         <v>-100</v>
       </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J57" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>56</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B58" s="2" t="s">
         <v>74</v>
       </c>
       <c r="C58" t="s">
@@ -2188,12 +2341,15 @@
       <c r="I58">
         <v>-100</v>
       </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J58" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>57</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B59" s="2" t="s">
         <v>74</v>
       </c>
       <c r="C59" t="s">
@@ -2214,12 +2370,15 @@
       <c r="I59">
         <v>-100</v>
       </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J59" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>58</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B60" s="2" t="s">
         <v>74</v>
       </c>
       <c r="C60" t="s">
@@ -2240,12 +2399,15 @@
       <c r="I60">
         <v>-100</v>
       </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J60" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>59</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B61" s="2" t="s">
         <v>78</v>
       </c>
       <c r="C61" t="s">
@@ -2267,11 +2429,11 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>60</v>
       </c>
-      <c r="B62" t="s">
+      <c r="B62" s="2" t="s">
         <v>78</v>
       </c>
       <c r="C62" t="s">
@@ -2292,12 +2454,15 @@
       <c r="I62">
         <v>90.4</v>
       </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J62" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>61</v>
       </c>
-      <c r="B63" t="s">
+      <c r="B63" s="2" t="s">
         <v>79</v>
       </c>
       <c r="C63" t="s">
@@ -2319,11 +2484,11 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>62</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B64" s="2" t="s">
         <v>79</v>
       </c>
       <c r="C64" t="s">
@@ -2344,12 +2509,15 @@
       <c r="I64">
         <v>92.835999999999999</v>
       </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J64" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>63</v>
       </c>
-      <c r="B65" t="s">
+      <c r="B65" s="2" t="s">
         <v>81</v>
       </c>
       <c r="C65" t="s">
@@ -2371,11 +2539,11 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>64</v>
       </c>
-      <c r="B66" t="s">
+      <c r="B66" s="2" t="s">
         <v>81</v>
       </c>
       <c r="C66" t="s">
@@ -2396,12 +2564,15 @@
       <c r="I66">
         <v>92.835999999999999</v>
       </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J66" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>65</v>
       </c>
-      <c r="B67" t="s">
+      <c r="B67" s="2" t="s">
         <v>82</v>
       </c>
       <c r="C67" t="s">
@@ -2423,11 +2594,11 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>66</v>
       </c>
-      <c r="B68" t="s">
+      <c r="B68" s="2" t="s">
         <v>82</v>
       </c>
       <c r="C68" t="s">
@@ -2448,12 +2619,15 @@
       <c r="I68">
         <v>91.14</v>
       </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J68" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>67</v>
       </c>
-      <c r="B69" t="s">
+      <c r="B69" s="2" t="s">
         <v>82</v>
       </c>
       <c r="C69" t="s">
@@ -2474,12 +2648,15 @@
       <c r="I69">
         <v>91.409000000000006</v>
       </c>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J69" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>68</v>
       </c>
-      <c r="B70" t="s">
+      <c r="B70" s="2" t="s">
         <v>82</v>
       </c>
       <c r="C70" t="s">
@@ -2500,12 +2677,15 @@
       <c r="I70">
         <v>91.728999999999999</v>
       </c>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J70" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>69</v>
       </c>
-      <c r="B71" t="s">
+      <c r="B71" s="2" t="s">
         <v>86</v>
       </c>
       <c r="C71" t="s">
@@ -2527,11 +2707,11 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>70</v>
       </c>
-      <c r="B72" t="s">
+      <c r="B72" s="2" t="s">
         <v>86</v>
       </c>
       <c r="C72" t="s">
@@ -2552,12 +2732,15 @@
       <c r="I72">
         <v>92.835999999999999</v>
       </c>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J72" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>71</v>
       </c>
-      <c r="B73" t="s">
+      <c r="B73" s="2" t="s">
         <v>88</v>
       </c>
       <c r="C73" t="s">
@@ -2579,11 +2762,11 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>72</v>
       </c>
-      <c r="B74" t="s">
+      <c r="B74" s="2" t="s">
         <v>88</v>
       </c>
       <c r="C74" t="s">
@@ -2604,12 +2787,15 @@
       <c r="I74">
         <v>-100</v>
       </c>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J74" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>73</v>
       </c>
-      <c r="B75" t="s">
+      <c r="B75" s="2" t="s">
         <v>88</v>
       </c>
       <c r="C75" t="s">
@@ -2630,12 +2816,15 @@
       <c r="I75">
         <v>87.328000000000003</v>
       </c>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J75" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>74</v>
       </c>
-      <c r="B76" t="s">
+      <c r="B76" s="2" t="s">
         <v>88</v>
       </c>
       <c r="C76" t="s">
@@ -2656,12 +2845,15 @@
       <c r="I76">
         <v>91.212000000000003</v>
       </c>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J76" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>75</v>
       </c>
-      <c r="B77" t="s">
+      <c r="B77" s="2" t="s">
         <v>94</v>
       </c>
       <c r="C77" t="s">
@@ -2683,11 +2875,11 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>76</v>
       </c>
-      <c r="B78" t="s">
+      <c r="B78" s="2" t="s">
         <v>94</v>
       </c>
       <c r="C78" t="s">
@@ -2708,12 +2900,15 @@
       <c r="I78">
         <v>91.14</v>
       </c>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J78" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>77</v>
       </c>
-      <c r="B79" t="s">
+      <c r="B79" s="2" t="s">
         <v>94</v>
       </c>
       <c r="C79" t="s">
@@ -2734,12 +2929,15 @@
       <c r="I79">
         <v>91.409000000000006</v>
       </c>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J79" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>78</v>
       </c>
-      <c r="B80" t="s">
+      <c r="B80" s="2" t="s">
         <v>94</v>
       </c>
       <c r="C80" t="s">
@@ -2760,12 +2958,15 @@
       <c r="I80">
         <v>91.728999999999999</v>
       </c>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J80" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>79</v>
       </c>
-      <c r="B81" t="s">
+      <c r="B81" s="2" t="s">
         <v>95</v>
       </c>
       <c r="C81" t="s">
@@ -2787,11 +2988,11 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>80</v>
       </c>
-      <c r="B82" t="s">
+      <c r="B82" s="2" t="s">
         <v>95</v>
       </c>
       <c r="C82" t="s">
@@ -2812,12 +3013,15 @@
       <c r="I82">
         <v>92.835999999999999</v>
       </c>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J82" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>81</v>
       </c>
-      <c r="B83" t="s">
+      <c r="B83" s="2" t="s">
         <v>96</v>
       </c>
       <c r="C83" t="s">
@@ -2839,11 +3043,11 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>82</v>
       </c>
-      <c r="B84" t="s">
+      <c r="B84" s="2" t="s">
         <v>96</v>
       </c>
       <c r="C84" t="s">
@@ -2864,12 +3068,15 @@
       <c r="I84">
         <v>91.009</v>
       </c>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J84" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>83</v>
       </c>
-      <c r="B85" t="s">
+      <c r="B85" s="2" t="s">
         <v>96</v>
       </c>
       <c r="C85" t="s">
@@ -2890,12 +3097,15 @@
       <c r="I85">
         <v>91.474999999999994</v>
       </c>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J85" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>84</v>
       </c>
-      <c r="B86" t="s">
+      <c r="B86" s="2" t="s">
         <v>96</v>
       </c>
       <c r="C86" t="s">
@@ -2916,12 +3126,15 @@
       <c r="I86">
         <v>93.015000000000001</v>
       </c>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J86" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>85</v>
       </c>
-      <c r="B87" t="s">
+      <c r="B87" s="2" t="s">
         <v>96</v>
       </c>
       <c r="C87" t="s">
@@ -2942,12 +3155,15 @@
       <c r="I87">
         <v>90.4</v>
       </c>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J87" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>86</v>
       </c>
-      <c r="B88" t="s">
+      <c r="B88" s="2" t="s">
         <v>96</v>
       </c>
       <c r="C88" t="s">
@@ -2968,12 +3184,15 @@
       <c r="I88">
         <v>92.367000000000004</v>
       </c>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J88" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>87</v>
       </c>
-      <c r="B89" t="s">
+      <c r="B89" s="2" t="s">
         <v>96</v>
       </c>
       <c r="C89" t="s">
@@ -2986,11 +3205,11 @@
         <v>-200</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>88</v>
       </c>
-      <c r="B90" t="s">
+      <c r="B90" s="2" t="s">
         <v>100</v>
       </c>
       <c r="C90" t="s">
@@ -3012,11 +3231,11 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>89</v>
       </c>
-      <c r="B91" t="s">
+      <c r="B91" s="2" t="s">
         <v>100</v>
       </c>
       <c r="C91" t="s">
@@ -3037,12 +3256,15 @@
       <c r="I91">
         <v>92.018000000000001</v>
       </c>
-    </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J91" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>90</v>
       </c>
-      <c r="B92" t="s">
+      <c r="B92" s="2" t="s">
         <v>102</v>
       </c>
       <c r="C92" t="s">
@@ -3064,11 +3286,11 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>91</v>
       </c>
-      <c r="B93" t="s">
+      <c r="B93" s="2" t="s">
         <v>102</v>
       </c>
       <c r="C93" t="s">
@@ -3089,12 +3311,15 @@
       <c r="I93">
         <v>65.251000000000005</v>
       </c>
-    </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J93" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>92</v>
       </c>
-      <c r="B94" t="s">
+      <c r="B94" s="2" t="s">
         <v>104</v>
       </c>
       <c r="C94" t="s">
@@ -3116,11 +3341,11 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>93</v>
       </c>
-      <c r="B95" t="s">
+      <c r="B95" s="2" t="s">
         <v>104</v>
       </c>
       <c r="C95" t="s">
@@ -3141,12 +3366,15 @@
       <c r="I95">
         <v>91.009</v>
       </c>
-    </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J95" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>94</v>
       </c>
-      <c r="B96" t="s">
+      <c r="B96" s="2" t="s">
         <v>104</v>
       </c>
       <c r="C96" t="s">
@@ -3167,12 +3395,15 @@
       <c r="I96">
         <v>91.474999999999994</v>
       </c>
-    </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J96" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>95</v>
       </c>
-      <c r="B97" t="s">
+      <c r="B97" s="2" t="s">
         <v>104</v>
       </c>
       <c r="C97" t="s">
@@ -3193,12 +3424,15 @@
       <c r="I97">
         <v>93.015000000000001</v>
       </c>
-    </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J97" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>96</v>
       </c>
-      <c r="B98" t="s">
+      <c r="B98" s="2" t="s">
         <v>104</v>
       </c>
       <c r="C98" t="s">
@@ -3219,12 +3453,15 @@
       <c r="I98">
         <v>90.4</v>
       </c>
-    </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J98" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>97</v>
       </c>
-      <c r="B99" t="s">
+      <c r="B99" s="2" t="s">
         <v>104</v>
       </c>
       <c r="C99" t="s">
@@ -3245,12 +3482,15 @@
       <c r="I99">
         <v>92.367000000000004</v>
       </c>
-    </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J99" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>98</v>
       </c>
-      <c r="B100" t="s">
+      <c r="B100" s="2" t="s">
         <v>104</v>
       </c>
       <c r="C100" t="s">
@@ -3263,11 +3503,11 @@
         <v>-200</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>99</v>
       </c>
-      <c r="B101" t="s">
+      <c r="B101" s="2" t="s">
         <v>105</v>
       </c>
       <c r="C101" t="s">
@@ -3289,11 +3529,11 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>100</v>
       </c>
-      <c r="B102" t="s">
+      <c r="B102" s="2" t="s">
         <v>105</v>
       </c>
       <c r="C102" t="s">
@@ -3314,12 +3554,15 @@
       <c r="I102">
         <v>92.018000000000001</v>
       </c>
-    </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J102" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>101</v>
       </c>
-      <c r="B103" t="s">
+      <c r="B103" s="2" t="s">
         <v>106</v>
       </c>
       <c r="C103" t="s">
@@ -3341,11 +3584,11 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>102</v>
       </c>
-      <c r="B104" t="s">
+      <c r="B104" s="2" t="s">
         <v>106</v>
       </c>
       <c r="C104" t="s">
@@ -3366,12 +3609,15 @@
       <c r="I104">
         <v>65.251000000000005</v>
       </c>
-    </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J104" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>103</v>
       </c>
-      <c r="B105" t="s">
+      <c r="B105" s="2" t="s">
         <v>107</v>
       </c>
       <c r="C105" t="s">
@@ -3393,11 +3639,11 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>104</v>
       </c>
-      <c r="B106" t="s">
+      <c r="B106" s="2" t="s">
         <v>107</v>
       </c>
       <c r="C106" t="s">
@@ -3418,12 +3664,15 @@
       <c r="I106">
         <v>92.835999999999999</v>
       </c>
-    </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J106" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>105</v>
       </c>
-      <c r="B107" t="s">
+      <c r="B107" s="2" t="s">
         <v>107</v>
       </c>
       <c r="C107" t="s">
@@ -3444,14 +3693,238 @@
       <c r="I107">
         <v>92.605999999999995</v>
       </c>
-    </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J107" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A108" s="1">
+        <v>105</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C108" t="s">
+        <v>109</v>
+      </c>
+      <c r="D108" t="s">
+        <v>10</v>
+      </c>
+      <c r="I108">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A109" s="1">
+        <v>105</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C109" t="s">
+        <v>109</v>
+      </c>
+      <c r="D109" t="s">
+        <v>10</v>
+      </c>
+      <c r="E109" t="s">
+        <v>64</v>
+      </c>
+      <c r="F109" t="s">
+        <v>65</v>
+      </c>
+      <c r="G109" t="s">
+        <v>110</v>
+      </c>
       <c r="I109">
-        <f>AVERAGEIF(I2:I107,"&gt;0")</f>
-        <v>90.070818181818197</v>
+        <v>91.722999999999999</v>
+      </c>
+      <c r="J109" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A110" s="1">
+        <v>105</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C110" t="s">
+        <v>109</v>
+      </c>
+      <c r="D110" t="s">
+        <v>10</v>
+      </c>
+      <c r="E110" t="s">
+        <v>64</v>
+      </c>
+      <c r="F110" t="s">
+        <v>65</v>
+      </c>
+      <c r="G110" t="s">
+        <v>111</v>
+      </c>
+      <c r="I110">
+        <v>92.564999999999998</v>
+      </c>
+      <c r="J110" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A111" s="1">
+        <v>105</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C111" t="s">
+        <v>109</v>
+      </c>
+      <c r="D111" t="s">
+        <v>10</v>
+      </c>
+      <c r="E111" t="s">
+        <v>64</v>
+      </c>
+      <c r="F111" t="s">
+        <v>65</v>
+      </c>
+      <c r="G111" t="s">
+        <v>112</v>
+      </c>
+      <c r="I111">
+        <v>93.061999999999998</v>
+      </c>
+      <c r="J111" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A112" s="1">
+        <v>105</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C112" t="s">
+        <v>109</v>
+      </c>
+      <c r="D112" t="s">
+        <v>10</v>
+      </c>
+      <c r="E112" t="s">
+        <v>76</v>
+      </c>
+      <c r="F112" t="s">
+        <v>77</v>
+      </c>
+      <c r="G112" t="s">
+        <v>113</v>
+      </c>
+      <c r="I112">
+        <v>90.481999999999999</v>
+      </c>
+      <c r="J112" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A113" s="1">
+        <v>105</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C113" t="s">
+        <v>109</v>
+      </c>
+      <c r="D113" t="s">
+        <v>10</v>
+      </c>
+      <c r="E113" t="s">
+        <v>76</v>
+      </c>
+      <c r="F113" t="s">
+        <v>77</v>
+      </c>
+      <c r="G113" t="s">
+        <v>114</v>
+      </c>
+      <c r="I113">
+        <v>90.73</v>
+      </c>
+      <c r="J113" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A114" s="1">
+        <v>105</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C114" t="s">
+        <v>109</v>
+      </c>
+      <c r="D114" t="s">
+        <v>10</v>
+      </c>
+      <c r="E114" t="s">
+        <v>22</v>
+      </c>
+      <c r="F114" t="s">
+        <v>23</v>
+      </c>
+      <c r="G114" t="s">
+        <v>115</v>
+      </c>
+      <c r="I114">
+        <v>92.844999999999999</v>
+      </c>
+      <c r="J114" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A115" s="1">
+        <v>105</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C115" t="s">
+        <v>109</v>
+      </c>
+      <c r="D115" t="s">
+        <v>10</v>
+      </c>
+      <c r="E115" t="s">
+        <v>22</v>
+      </c>
+      <c r="F115" t="s">
+        <v>23</v>
+      </c>
+      <c r="G115" t="s">
+        <v>111</v>
+      </c>
+      <c r="I115">
+        <v>92.605999999999995</v>
+      </c>
+      <c r="J115" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I117">
+        <f>AVERAGEIF(I2:I115,"&gt;=0")</f>
+        <v>90.335862745098041</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:J115" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="256" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId1"/>
   <headerFooter>
